--- a/information/CANDBC++/can通讯协议.xlsx
+++ b/information/CANDBC++/can通讯协议.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="133">
   <si>
     <t>can通讯协议——bms从控与主控</t>
   </si>
@@ -274,10 +274,10 @@
     <t>0x</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>F4</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>50</t>
   </si>
   <si>
     <t>01</t>
@@ -286,25 +286,25 @@
     <t>从控1发送1-4号电池单体电压到主控</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
   </si>
   <si>
     <t>从控1发送4-8号电池单体电压到主控</t>
   </si>
   <si>
-    <t>12</t>
+    <t>13</t>
   </si>
   <si>
     <t>从控1发送9-12号电池单体电压到主控</t>
   </si>
   <si>
-    <t>13</t>
+    <t>14</t>
   </si>
   <si>
     <t>从控1发送13-16号电池单体电压到主控</t>
   </si>
   <si>
-    <t>14</t>
+    <t>15</t>
   </si>
   <si>
     <t>从控1发送17-20号电池单体电压到主控</t>
@@ -313,36 +313,42 @@
     <t xml:space="preserve">  </t>
   </si>
   <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>CellVoltN+1</t>
+  </si>
+  <si>
+    <t>单体电压N+1</t>
+  </si>
+  <si>
+    <t>mV</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>0x1388</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>CellVoltN+2</t>
+  </si>
+  <si>
+    <t>单体电压N+2</t>
+  </si>
+  <si>
     <t>每100ms广播一次</t>
   </si>
   <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>MAX</t>
-  </si>
-  <si>
-    <t>CellVoltN+1</t>
-  </si>
-  <si>
-    <t>单体电压N+1</t>
-  </si>
-  <si>
-    <t>mV</t>
-  </si>
-  <si>
-    <t>0x0</t>
-  </si>
-  <si>
-    <t>0x1388</t>
-  </si>
-  <si>
-    <t>CellVoltN+2</t>
-  </si>
-  <si>
-    <t>单体电压N+2</t>
-  </si>
-  <si>
     <t>CellVoltN+3</t>
   </si>
   <si>
@@ -355,7 +361,7 @@
     <t>单体电压N+4</t>
   </si>
   <si>
-    <t>20</t>
+    <t>21</t>
   </si>
   <si>
     <t>从控1发送8个温度数据</t>
@@ -364,7 +370,7 @@
     <t>18</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
     <t>从控1发送2个温度数据</t>
@@ -434,7 +440,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,13 +476,6 @@
       <sz val="10.5"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -628,7 +627,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -745,12 +744,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -758,18 +751,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,12 +774,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -817,12 +792,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -836,12 +805,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1083,121 +1046,139 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,29 +1187,11 @@
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1242,10 +1205,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1705,8 +1668,8 @@
   <sheetPr/>
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29:W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1776,11 +1739,11 @@
       <c r="AO2" s="30"/>
     </row>
     <row r="3" spans="2:45">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
       <c r="AK3" s="31"/>
       <c r="AL3" s="32" t="s">
         <v>2</v>
@@ -1808,11 +1771,11 @@
       </c>
     </row>
     <row r="4" spans="2:45">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
       <c r="AK4" s="33" t="s">
         <v>10</v>
       </c>
@@ -2076,40 +2039,40 @@
       <c r="AS14" s="36"/>
     </row>
     <row r="18" spans="4:35">
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
     </row>
     <row r="19" spans="4:35">
       <c r="D19" s="23" t="s">
@@ -2332,304 +2295,304 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="25" spans="4:23">
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="P25" s="4" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="P25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
     </row>
     <row r="26" spans="4:26">
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5" t="s">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="P26" s="5" t="s">
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="P26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5" t="s">
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5" t="s">
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="Y26" s="5"/>
+      <c r="Y26" s="4"/>
       <c r="Z26" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="27" spans="4:27">
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="P27" s="5" t="s">
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="P27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5" t="s">
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5" t="s">
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5" t="s">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA27" s="5"/>
+      <c r="AA27" s="4"/>
     </row>
     <row r="28" spans="4:27">
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5" t="s">
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="P28" s="5" t="s">
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="P28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5" t="s">
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4">
         <v>2</v>
       </c>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5">
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4">
         <v>10</v>
       </c>
-      <c r="AA28" s="5"/>
+      <c r="AA28" s="4"/>
     </row>
     <row r="29" spans="4:27">
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5" t="s">
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="P29" s="5" t="s">
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="P29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5" t="s">
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4">
         <v>1</v>
       </c>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
     </row>
     <row r="30" spans="4:27">
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5" t="s">
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="P30" s="5" t="s">
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="P30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5" t="s">
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4">
         <v>1</v>
       </c>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
     </row>
     <row r="31" spans="4:27">
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="P31" s="5" t="s">
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="P31" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5" t="s">
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4">
         <v>1</v>
       </c>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
     </row>
     <row r="32" spans="4:23">
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5" t="s">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
     </row>
     <row r="33" spans="4:23">
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5" t="s">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
     </row>
     <row r="34" spans="4:13">
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
     </row>
     <row r="35" spans="4:13">
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
     <row r="36" spans="37:45">
       <c r="AK36" s="36"/>
@@ -2721,8 +2684,8 @@
   <sheetPr/>
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -2830,10 +2793,10 @@
       <c r="B3" s="3">
         <v>18</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="37" t="s">
@@ -2868,10 +2831,10 @@
       <c r="B4" s="3">
         <v>18</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E4" s="37" t="s">
@@ -2906,7 +2869,7 @@
       <c r="B5" s="3">
         <v>18</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="3" t="s">
         <v>89</v>
       </c>
       <c r="D5" s="37" t="s">
@@ -2944,10 +2907,10 @@
       <c r="B6" s="3">
         <v>18</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E6" s="37" t="s">
@@ -2976,7 +2939,9 @@
       <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="37" t="s">
         <v>93</v>
@@ -3004,16 +2969,27 @@
       <c r="Y7" s="16"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3">
+        <v>18</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -3031,15 +3007,25 @@
       <c r="Y8" s="16"/>
     </row>
     <row r="9" ht="15.45" spans="1:25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -3065,15 +3051,25 @@
       <c r="Y9" s="16"/>
     </row>
     <row r="10" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="3">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="K10" s="8">
         <v>0</v>
       </c>
@@ -3115,15 +3111,25 @@
       <c r="Y10" s="20"/>
     </row>
     <row r="11" ht="15.4" spans="1:25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="3">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
         <f t="shared" ref="L11:M17" si="0">(L10-1)</f>
@@ -3147,15 +3153,25 @@
       <c r="Y11" s="20"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="3">
+        <v>18</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
         <f t="shared" si="0"/>
@@ -3179,7 +3195,9 @@
       <c r="Y12" s="20"/>
     </row>
     <row r="13" ht="15.4" spans="1:25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -3211,15 +3229,27 @@
       <c r="Y13" s="20"/>
     </row>
     <row r="14" ht="15.4" spans="1:25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="3">
+        <v>18</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
         <f t="shared" si="0"/>
@@ -3243,15 +3273,25 @@
       <c r="Y14" s="20"/>
     </row>
     <row r="15" ht="15.4" spans="1:25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="3">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
         <f t="shared" si="0"/>
@@ -3275,15 +3315,25 @@
       <c r="Y15" s="20"/>
     </row>
     <row r="16" ht="15.4" spans="1:25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="3">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
         <f t="shared" si="0"/>
@@ -3307,15 +3357,25 @@
       <c r="Y16" s="20"/>
     </row>
     <row r="17" ht="15.4" spans="1:25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="3">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
         <f t="shared" si="0"/>
@@ -3339,15 +3399,25 @@
       <c r="Y17" s="20"/>
     </row>
     <row r="18" ht="15.4" spans="1:25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="3">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="K18" s="8">
         <v>1</v>
       </c>
@@ -3371,9 +3441,11 @@
       <c r="Y18" s="20"/>
     </row>
     <row r="19" ht="15.4" spans="1:25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
@@ -3402,9 +3474,13 @@
       <c r="Y19" s="20"/>
     </row>
     <row r="20" ht="15.4" spans="1:25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
+      <c r="A20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="6"/>
@@ -3433,9 +3509,13 @@
       <c r="Y20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
+      <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
@@ -3466,7 +3546,7 @@
     <row r="22" ht="15.4" spans="1:25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
@@ -3497,7 +3577,7 @@
     <row r="23" ht="15.4" spans="1:25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="6"/>
@@ -3528,7 +3608,7 @@
     <row r="24" ht="15.4" spans="1:25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="6"/>
@@ -3559,7 +3639,7 @@
     <row r="25" ht="15.4" spans="1:25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="6"/>
@@ -3590,7 +3670,7 @@
     <row r="26" ht="15.75" customHeight="1" spans="1:25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
@@ -3608,10 +3688,10 @@
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="18" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q26" s="19"/>
       <c r="R26" s="13">
@@ -3662,7 +3742,7 @@
       <c r="Y27" s="21"/>
     </row>
     <row r="28" ht="15.75" customHeight="1" spans="1:25">
-      <c r="A28" s="4"/>
+      <c r="A28" s="5"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
         <f t="shared" si="2"/>
@@ -3706,7 +3786,10 @@
       <c r="X29" s="21"/>
       <c r="Y29" s="21"/>
     </row>
-    <row r="30" ht="15.4" spans="11:25">
+    <row r="30" ht="15.4" spans="1:25">
+      <c r="A30" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
         <f t="shared" si="2"/>
@@ -3983,10 +4066,10 @@
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="13">
@@ -4351,10 +4434,10 @@
       </c>
       <c r="N58" s="9"/>
       <c r="O58" s="13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13">
@@ -4698,24 +4781,14 @@
       <c r="Y73" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="90">
+  <mergeCells count="82">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
     <mergeCell ref="F19:I19"/>
     <mergeCell ref="F20:I20"/>
     <mergeCell ref="F21:I21"/>
@@ -4789,6 +4862,8 @@
     <mergeCell ref="Y58:Y73"/>
     <mergeCell ref="U1:V8"/>
     <mergeCell ref="W1:X8"/>
+    <mergeCell ref="F8:I12"/>
+    <mergeCell ref="F14:I18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -4800,8 +4875,8 @@
   <sheetPr/>
   <dimension ref="A1:Y73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10:X17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="K2" workbookViewId="0">
+      <selection activeCell="Z15" sqref="Z15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -4866,17 +4941,17 @@
       <c r="B2" s="3">
         <v>18</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -4902,19 +4977,19 @@
         <v>80</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E3" s="37" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -4936,7 +5011,9 @@
       <c r="Y3" s="16"/>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -4962,16 +5039,27 @@
       <c r="Y4" s="16"/>
     </row>
     <row r="5" spans="1:25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="F5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -4989,15 +5077,25 @@
       <c r="Y5" s="16"/>
     </row>
     <row r="6" spans="1:25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -5015,7 +5113,9 @@
       <c r="Y6" s="16"/>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -5041,15 +5141,27 @@
       <c r="Y7" s="16"/>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
@@ -5067,15 +5179,25 @@
       <c r="Y8" s="16"/>
     </row>
     <row r="9" ht="15.45" spans="1:25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
@@ -5101,7 +5223,9 @@
       <c r="Y9" s="16"/>
     </row>
     <row r="10" ht="15.4" spans="1:25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -5121,10 +5245,10 @@
       </c>
       <c r="N10" s="9"/>
       <c r="O10" s="13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="13"/>
       <c r="R10" s="13">
@@ -5134,13 +5258,13 @@
         <v>-40</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U10" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W10" s="13">
         <v>-40</v>
@@ -5151,7 +5275,9 @@
       <c r="Y10" s="13"/>
     </row>
     <row r="11" ht="15.4" spans="1:25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5183,7 +5309,9 @@
       <c r="Y11" s="13"/>
     </row>
     <row r="12" ht="15.4" spans="1:25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -5215,7 +5343,9 @@
       <c r="Y12" s="13"/>
     </row>
     <row r="13" ht="15.4" spans="1:25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -5247,7 +5377,9 @@
       <c r="Y13" s="13"/>
     </row>
     <row r="14" ht="15.4" spans="1:25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -5395,10 +5527,10 @@
       </c>
       <c r="N18" s="9"/>
       <c r="O18" s="13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P18" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="13">
@@ -5408,13 +5540,13 @@
         <v>-40</v>
       </c>
       <c r="T18" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U18" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V18" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W18" s="13">
         <v>-40</v>
@@ -5427,7 +5559,7 @@
     <row r="19" ht="15.4" spans="1:25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="5"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="6"/>
@@ -5458,7 +5590,7 @@
     <row r="20" ht="15.4" spans="1:25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="5"/>
+      <c r="C20" s="4"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="6"/>
@@ -5489,7 +5621,7 @@
     <row r="21" ht="15.4" spans="1:25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
+      <c r="C21" s="4"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="6"/>
@@ -5520,7 +5652,7 @@
     <row r="22" ht="15.4" spans="1:25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="5"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="6"/>
@@ -5551,7 +5683,7 @@
     <row r="23" ht="15.4" spans="1:25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="5"/>
+      <c r="C23" s="4"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="6"/>
@@ -5582,7 +5714,7 @@
     <row r="24" ht="15.4" spans="1:25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="5"/>
+      <c r="C24" s="4"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="6"/>
@@ -5613,7 +5745,7 @@
     <row r="25" ht="15.4" spans="1:25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="5"/>
+      <c r="C25" s="4"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="6"/>
@@ -5644,7 +5776,7 @@
     <row r="26" ht="15.4" spans="1:25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="4"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="6"/>
@@ -5662,10 +5794,10 @@
       </c>
       <c r="N26" s="9"/>
       <c r="O26" s="13" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P26" s="14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="13">
@@ -5675,13 +5807,13 @@
         <v>-40</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U26" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V26" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W26" s="13">
         <v>-40</v>
@@ -5714,8 +5846,8 @@
       <c r="Y27" s="13"/>
     </row>
     <row r="28" ht="15.4" spans="1:25">
-      <c r="A28" s="4" t="s">
-        <v>94</v>
+      <c r="A28" s="5" t="s">
+        <v>105</v>
       </c>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
@@ -5860,10 +5992,10 @@
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P34" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q34" s="13"/>
       <c r="R34" s="13">
@@ -5873,13 +6005,13 @@
         <v>-40</v>
       </c>
       <c r="T34" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U34" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V34" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W34" s="13">
         <v>-40</v>
@@ -6055,10 +6187,10 @@
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P42" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="13">
@@ -6068,13 +6200,13 @@
         <v>-40</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U42" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V42" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W42" s="13">
         <v>-40</v>
@@ -6250,10 +6382,10 @@
       </c>
       <c r="N50" s="9"/>
       <c r="O50" s="13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P50" s="14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q50" s="13"/>
       <c r="R50" s="13">
@@ -6263,13 +6395,13 @@
         <v>-40</v>
       </c>
       <c r="T50" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U50" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V50" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W50" s="13">
         <v>-40</v>
@@ -6441,10 +6573,10 @@
       </c>
       <c r="N58" s="9"/>
       <c r="O58" s="13" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P58" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q58" s="13"/>
       <c r="R58" s="13">
@@ -6454,13 +6586,13 @@
         <v>-40</v>
       </c>
       <c r="T58" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U58" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V58" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W58" s="13">
         <v>-40</v>
@@ -6629,10 +6761,10 @@
       </c>
       <c r="N66" s="9"/>
       <c r="O66" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P66" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q66" s="13"/>
       <c r="R66" s="13">
@@ -6642,13 +6774,13 @@
         <v>-40</v>
       </c>
       <c r="T66" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="U66" s="13" t="s">
         <v>100</v>
       </c>
       <c r="V66" s="13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="W66" s="13">
         <v>-40</v>
@@ -6806,15 +6938,11 @@
       <c r="Y73" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="134">
+  <mergeCells count="132">
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
@@ -6941,6 +7069,8 @@
     <mergeCell ref="Y66:Y73"/>
     <mergeCell ref="U1:V8"/>
     <mergeCell ref="W1:X8"/>
+    <mergeCell ref="F5:I6"/>
+    <mergeCell ref="F8:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
